--- a/testData/html_tables.xlsx
+++ b/testData/html_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\ZIMJobInterview\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C98130B-CBAC-4A21-9421-98973B78A3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB210657-0DE4-4AC9-AFBA-9F9A32081A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="920" windowWidth="14400" windowHeight="7360" xr2:uid="{1DC9481A-FF40-4537-BD66-4572702ABAB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>searchText</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Ernst Handel</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -141,13 +147,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D079AF75-D5A9-47D6-B902-B3F2E5EB1B4C}" name="טבלה1" displayName="טבלה1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D5" xr:uid="{D079AF75-D5A9-47D6-B902-B3F2E5EB1B4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D079AF75-D5A9-47D6-B902-B3F2E5EB1B4C}" name="טבלה1" displayName="טבלה1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D9" xr:uid="{D079AF75-D5A9-47D6-B902-B3F2E5EB1B4C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{897163B7-C6BD-4624-B919-9BA0F59271D1}" name="searchText" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B393E40F-5D5A-4CBD-939D-60237A5106AE}" name="searchColumn" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{48DD5524-AC36-47E1-97D5-0C25901F2F39}" name="expectedText" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{51734B70-2FD7-42F1-8D28-14BDE1289737}" name="returnColumnText" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{897163B7-C6BD-4624-B919-9BA0F59271D1}" name="searchText" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B393E40F-5D5A-4CBD-939D-60237A5106AE}" name="searchColumn" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{48DD5524-AC36-47E1-97D5-0C25901F2F39}" name="expectedText" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{51734B70-2FD7-42F1-8D28-14BDE1289737}" name="returnColumnText" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E51B6-31D9-4B1B-8ABE-1F146CD6D2B0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -535,6 +541,62 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
